--- a/biology/Zoologie/Engoulevent_de_jungle/Engoulevent_de_jungle.xlsx
+++ b/biology/Zoologie/Engoulevent_de_jungle/Engoulevent_de_jungle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caprimulgus indicus
 L'Engoulevent de la jungle ou Engoulevent de jungle (Caprimulgus indicus), aussi Engoulevent des Indes, Engoulevent indien et Engoulevent jotaka, est une espèce d'oiseaux de la famille des Caprimulgidae, autrefois considérée comme conspécifique avec  l'Engoulevent jotaka (C. jotaka).
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit en Inde et au Sri Lanka.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'engoulevent de la jungle mesure de 21 à 24 cm de long.
 C'est un oiseau nocturne. Le jour il dort sur une branche d'arbre ou, parfois, dans l'herbe sous un buisson.
@@ -575,10 +591,12 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'engoulevent de la jungle est un oiseau insectivore.
-Il chasse et avale en voletant au dessus des herbes des papillons, des coléoptères, des criquets et autres insectes[1].
+Il chasse et avale en voletant au dessus des herbes des papillons, des coléoptères, des criquets et autres insectes.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La saison des amours varie selon la région : par exemple au Sri Lanka elle a lieu de février à juin.
 Le mâle émet des grognements sourd pendant la pariade.
